--- a/assets/budget/FinancialStatementTemplate.xlsx
+++ b/assets/budget/FinancialStatementTemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\san\Dropbox\CERI\website\website-NEW\assets\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\san\Documents\GitHub\ceri.github.io\assets\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB38F3-7D7D-40EB-A1B7-5E520FC82737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95F9F8-D08C-45D4-B64D-CBF7A4C7CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="840" windowWidth="24135" windowHeight="13485" activeTab="1" xr2:uid="{64BAD697-978E-4789-940A-C98528265A13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{64BAD697-978E-4789-940A-C98528265A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="rev v exp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="rev v exp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>REVENUES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Notes</t>
   </si>
@@ -80,16 +78,43 @@
     <t>SURPLUS / (DEFICIT) FOR THE PERIOD</t>
   </si>
   <si>
-    <t>$'00</t>
-  </si>
-  <si>
-    <t>projected</t>
-  </si>
-  <si>
     <t>revenue</t>
   </si>
   <si>
     <t>expenses</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Expressed in thousand US dollars</t>
+  </si>
+  <si>
+    <t>VARIATION</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Surplus</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Net Assets</t>
+  </si>
+  <si>
+    <t>(8)</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -113,9 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,20 +160,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -172,42 +188,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF09FF78"/>
+      <color rgb="FF1FB4FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,83 +289,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Revenue</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> v. Expenses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -326,43 +310,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="09FF78"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'rev v exp'!$A$2:$A$13</c:f>
@@ -448,14 +406,15 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C176-4194-9C7A-643359776452}"/>
+              <c16:uniqueId val="{00000000-A5FA-419D-8808-7F740FCEFC69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -474,43 +433,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1FB4FF"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'rev v exp'!$A$2:$A$13</c:f>
@@ -596,14 +529,15 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C176-4194-9C7A-643359776452}"/>
+              <c16:uniqueId val="{00000001-A5FA-419D-8808-7F740FCEFC69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -615,27 +549,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105225631"/>
-        <c:axId val="105228543"/>
-      </c:areaChart>
+        <c:smooth val="0"/>
+        <c:axId val="143387424"/>
+        <c:axId val="143380704"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="105225631"/>
+        <c:axId val="143387424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -649,8 +584,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -661,7 +597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105228543"/>
+        <c:crossAx val="143380704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105228543"/>
+        <c:axId val="143380704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,9 +615,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -707,8 +643,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -719,9 +656,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105225631"/>
+        <c:crossAx val="143387424"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -748,8 +685,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -762,32 +700,21 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -850,33 +777,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -884,34 +813,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -920,8 +841,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -940,6 +862,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -948,35 +878,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -988,29 +928,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1028,18 +970,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1049,20 +994,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1076,14 +1021,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1097,8 +1042,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1112,6 +1058,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1123,9 +1075,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1140,100 +1092,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1241,14 +1186,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1260,19 +1205,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1288,6 +1226,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1296,8 +1235,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1307,7 +1247,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1315,9 +1255,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1328,8 +1268,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1341,6 +1282,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1349,23 +1296,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4302B988-C715-2DB8-CA79-9E09E148CDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477F3946-F25E-8A14-4C37-1DE1D62F94C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,9 +1334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1427,7 +1374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1533,7 +1480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1675,7 +1622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8654E41-180E-4D11-8B13-1D9FBE2D6720}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,56 +1643,59 @@
     <col min="3" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5">
-        <v>45291</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1754,152 +1704,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7">
+        <f>SUM(C5:C8)</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(D5:D8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12">
-        <f>SUM(C8:C11)</f>
-        <v>30</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(D8:D11)</f>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7">
+        <f>SUM(C14:C18)</f>
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUM(D14:D18)</f>
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8">
+        <f>SUM(C10-C20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12">
-        <f>SUM(C17:C21)</f>
-        <v>30</v>
-      </c>
-      <c r="D23" s="12">
-        <f>SUM(D17:D21)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13">
-        <f>SUM(C13-C23)</f>
+      <c r="D22" s="8">
+        <f>SUM(D10-D20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="13">
-        <f>SUM(D13-D23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1907,21 +1824,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0760D55-23A6-49EE-B66C-646ABE1205B3}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="15">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2CC498-2298-4B28-92F1-C928B31ACEC4}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,10 +2091,10 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
